--- a/similarities/split_global/harmonic_similarity_timestamps_303.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_303.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,278 +484,294 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>jaah_19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb:min7', 'Eb:7', 'Ab:maj7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:min7', 'Gb:7', 'Cb:maj7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:00:05.770000', '0:00:08.520000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:13.860000')]</t>
+          <t>('0:00:01.210000', '0:00:05.120000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=5.77</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=7.6']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=1.21</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:03.046928')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:59.400000', '0:01:07.940000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000'), ('0:00:33.140000', '0:00:37.240000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000'), ('0:00:37.540000', '0:00:42.720000')]</t>
+          <t>('0:02:37.019000', '0:02:40.636000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'F', 'C']]</t>
+          <t>['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:30.500000', '0:01:35.840000')]</t>
+          <t>('0:00:03.460000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.560725', '0:00:10.073922')]</t>
+          <t>('0:01:14.180000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=90.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=3.560725']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=74.18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['C:7', 'F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:16.958000', '0:01:25.346000'), ('0:00:03.584000', '0:00:13.841000')]</t>
+          <t>('0:00:07.840000', '0:00:10.040000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:17.520000'), ('0:00:01.360000', '0:00:04.740000')]</t>
+          <t>('0:00:40.500000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=76.958', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=40.5</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -764,422 +780,438 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:03.220000', '0:02:07.580000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:10.260000', '0:00:15.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:00.400000', '0:00:09.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'F:min', 'C#']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E/3', 'A:min', 'F']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.360000', '0:00:22.660000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.579000', '0:00:17.703000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=9.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000'), ('0:00:23.300000', '0:00:29.360000'), ('0:00:07.620000', '0:00:11.120000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=97.76']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11', '0:00:17.900000')]</t>
+          <t>('0:00:14.900000', '0:00:20.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:45.280000', '0:02:02.260000')]</t>
+          <t>('0:01:06.427052', '0:01:11.593492')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=11.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=105.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'Ab']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:05.360000', '0:00:09.200000')]</t>
+          <t>('0:00:00.580000', '0:00:08.960000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:54.639000', '0:00:59.554000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=5.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=54.639']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
